--- a/data/cv_entries.xlsx
+++ b/data/cv_entries.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/da4d17bb2dd32c35/Documentos/GitHub/Currículo/cv/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/da4d17bb2dd32c35/Documentos/GitHub/alexandrsanches.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="11_DD8E122245D96580AC36BA5A17DB0B619259454D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8002B7DC-62D1-4A7D-BDE7-09BB5CA0BACF}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="11_DD8E122245D96580AC36BA5A17DB0B619259454D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30255D28-5A31-4861-9D35-658FDE0B0E6C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>type</t>
   </si>
@@ -107,6 +107,27 @@
   </si>
   <si>
     <t>UPIS | **[&lt;i class="fab falink0 fa-github"&gt;&lt;/i&gt;](https://github.com/alexandrsanches/TCC)[Reproducibility repository]{.smaller-font}**</t>
+  </si>
+  <si>
+    <t>events</t>
+  </si>
+  <si>
+    <t>23rd Brazilian Economics Congress</t>
+  </si>
+  <si>
+    <t>Cofecon</t>
+  </si>
+  <si>
+    <t>Data science for economists</t>
+  </si>
+  <si>
+    <t>Corecon PE</t>
+  </si>
+  <si>
+    <t>2020 ---</t>
+  </si>
+  <si>
+    <t>2019 ---</t>
   </si>
 </sst>
 </file>
@@ -116,16 +137,8 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmm/yyyy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -153,10 +166,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -454,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -523,7 +535,7 @@
       <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -577,12 +589,37 @@
       <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="2"/>
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/cv_entries.xlsx
+++ b/data/cv_entries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/da4d17bb2dd32c35/Documentos/GitHub/alexandrsanches.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="11_DD8E122245D96580AC36BA5A17DB0B619259454D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30255D28-5A31-4861-9D35-658FDE0B0E6C}"/>
+  <xr:revisionPtr revIDLastSave="84" documentId="11_DD8E122245D96580AC36BA5A17DB0B619259454D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CA13A95-E744-48D2-85A1-6277E89C0D4B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -124,10 +124,10 @@
     <t>Corecon PE</t>
   </si>
   <si>
-    <t>2020 ---</t>
-  </si>
-  <si>
-    <t>2019 ---</t>
+    <t>2020 --</t>
+  </si>
+  <si>
+    <t>2019 --</t>
   </si>
 </sst>
 </file>

--- a/data/cv_entries.xlsx
+++ b/data/cv_entries.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/da4d17bb2dd32c35/Documentos/GitHub/alexandrsanches.github.io/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/da4d17bb2dd32c35/Documentos/Economia/GitHub/alexandrsanches.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="84" documentId="11_DD8E122245D96580AC36BA5A17DB0B619259454D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CA13A95-E744-48D2-85A1-6277E89C0D4B}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="11_DD8E122245D96580AC36BA5A17DB0B619259454D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{916AD7D4-1374-4789-A5FC-6787174E4662}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>type</t>
   </si>
@@ -103,9 +103,6 @@
     <t>09/21 ---</t>
   </si>
   <si>
-    <t>Since 11/21</t>
-  </si>
-  <si>
     <t>UPIS | **[&lt;i class="fab falink0 fa-github"&gt;&lt;/i&gt;](https://github.com/alexandrsanches/TCC)[Reproducibility repository]{.smaller-font}**</t>
   </si>
   <si>
@@ -124,10 +121,19 @@
     <t>Corecon PE</t>
   </si>
   <si>
-    <t>2020 --</t>
-  </si>
-  <si>
-    <t>2019 --</t>
+    <t>2020 ---</t>
+  </si>
+  <si>
+    <t>2019 ---</t>
+  </si>
+  <si>
+    <t>11/21 ---</t>
+  </si>
+  <si>
+    <t>Since 10/22</t>
+  </si>
+  <si>
+    <t>Reseacher</t>
   </si>
 </sst>
 </file>
@@ -166,10 +172,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -519,7 +524,7 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
         <v>10</v>
@@ -530,12 +535,12 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -544,17 +549,17 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C4" t="str">
-        <f>_xlfn.CONCAT("11/21")</f>
-        <v>11/21</v>
+        <f>_xlfn.CONCAT("10/22")</f>
+        <v>10/22</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -562,17 +567,17 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="str">
-        <f>_xlfn.CONCAT("08/21")</f>
-        <v>08/21</v>
+        <f>_xlfn.CONCAT("11/21")</f>
+        <v>11/21</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -580,45 +585,63 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1" t="str">
+        <v>21</v>
+      </c>
+      <c r="C6" t="str">
         <f>_xlfn.CONCAT("08/21")</f>
         <v>08/21</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <f>_xlfn.CONCAT("08/21")</f>
+        <v>08/21</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>29</v>
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E9" t="s">
         <v>26</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/data/cv_entries.xlsx
+++ b/data/cv_entries.xlsx
@@ -1,38 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/da4d17bb2dd32c35/Documentos/Economia/GitHub/alexandrsanches.github.io/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexandre.sanches\Documents\Currículo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="107" documentId="11_DD8E122245D96580AC36BA5A17DB0B619259454D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{916AD7D4-1374-4789-A5FC-6787174E4662}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8635ECF1-BEB6-4883-9DCE-064780583DC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>type</t>
   </si>
@@ -134,6 +122,15 @@
   </si>
   <si>
     <t>Reseacher</t>
+  </si>
+  <si>
+    <t>Since 04/23</t>
+  </si>
+  <si>
+    <t>IPEDF - Institute of Research and Statistics of the Federal District</t>
+  </si>
+  <si>
+    <t>Manager</t>
   </si>
 </sst>
 </file>
@@ -471,20 +468,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="136.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="136.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -510,7 +507,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -530,117 +527,131 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
         <v>31</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C5" t="str">
         <f>_xlfn.CONCAT("10/22")</f>
         <v>10/22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C6" t="str">
         <f>_xlfn.CONCAT("11/21")</f>
         <v>11/21</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="str">
+      <c r="C7" t="str">
         <f>_xlfn.CONCAT("08/21")</f>
         <v>08/21</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>15</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="1" t="str">
+      <c r="C8" s="1" t="str">
         <f>_xlfn.CONCAT("08/21")</f>
         <v>08/21</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>14</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
       <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
         <v>30</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
         <v>26</v>
       </c>
     </row>

--- a/data/cv_entries.xlsx
+++ b/data/cv_entries.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/da4d17bb2dd32c35/Documentos/Economia/GitHub/alexandrsanches.github.io/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/da4d17bb2dd32c35/Economia/GitHub/alexandrsanches.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="107" documentId="11_DD8E122245D96580AC36BA5A17DB0B619259454D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{916AD7D4-1374-4789-A5FC-6787174E4662}"/>
+  <xr:revisionPtr revIDLastSave="117" documentId="11_DD8E122245D96580AC36BA5A17DB0B619259454D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AA99570-1604-4EE5-909E-4949E6B62449}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>type</t>
   </si>
@@ -134,6 +134,15 @@
   </si>
   <si>
     <t>Reseacher</t>
+  </si>
+  <si>
+    <t>2024 ---</t>
+  </si>
+  <si>
+    <t>M.Sc. in Economics</t>
+  </si>
+  <si>
+    <t>UCB</t>
   </si>
 </sst>
 </file>
@@ -471,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -515,16 +524,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C2">
-        <v>2022</v>
+        <v>2026</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="H2" t="s">
         <v>10</v>
@@ -532,16 +541,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>2022</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -549,14 +561,10 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" t="str">
-        <f>_xlfn.CONCAT("10/22")</f>
-        <v>10/22</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
@@ -567,17 +575,17 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C5" t="str">
-        <f>_xlfn.CONCAT("11/21")</f>
-        <v>11/21</v>
+        <f>_xlfn.CONCAT("10/22")</f>
+        <v>10/22</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -585,17 +593,17 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="str">
-        <f>_xlfn.CONCAT("08/21")</f>
-        <v>08/21</v>
+        <f>_xlfn.CONCAT("11/21")</f>
+        <v>11/21</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -603,31 +611,35 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="1" t="str">
+        <v>21</v>
+      </c>
+      <c r="C7" t="str">
         <f>_xlfn.CONCAT("08/21")</f>
         <v>08/21</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <f>_xlfn.CONCAT("08/21")</f>
+        <v>08/21</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -635,12 +647,26 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
         <v>30</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
         <v>26</v>
       </c>
     </row>

--- a/data/cv_entries.xlsx
+++ b/data/cv_entries.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexandre.sanches\Documents\Currículo\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/da4d17bb2dd32c35/Economia/GitHub/alexandrsanches.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8635ECF1-BEB6-4883-9DCE-064780583DC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{8635ECF1-BEB6-4883-9DCE-064780583DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9797D0D-AC3C-4BE4-AC1C-176B17B3C761}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>type</t>
   </si>
@@ -131,6 +144,15 @@
   </si>
   <si>
     <t>Manager</t>
+  </si>
+  <si>
+    <t>2024 ---</t>
+  </si>
+  <si>
+    <t>M.Sc. in Economics</t>
+  </si>
+  <si>
+    <t>Universidade Católica de Brasília</t>
   </si>
 </sst>
 </file>
@@ -468,20 +490,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="136.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="136.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -507,151 +529,168 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2">
+        <v>2024</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>2022</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>23</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
         <v>31</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C6" t="str">
         <f>_xlfn.CONCAT("10/22")</f>
         <v>10/22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="str">
+      <c r="C7" t="str">
         <f>_xlfn.CONCAT("11/21")</f>
         <v>11/21</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="str">
+      <c r="C8" t="str">
         <f>_xlfn.CONCAT("08/21")</f>
         <v>08/21</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="1" t="str">
+      <c r="C9" s="1" t="str">
         <f>_xlfn.CONCAT("08/21")</f>
         <v>08/21</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>14</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>24</v>
       </c>
       <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
         <v>30</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E11" t="s">
         <v>26</v>
       </c>
     </row>

--- a/data/cv_entries.xlsx
+++ b/data/cv_entries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/da4d17bb2dd32c35/Economia/GitHub/alexandrsanches.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{8635ECF1-BEB6-4883-9DCE-064780583DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9797D0D-AC3C-4BE4-AC1C-176B17B3C761}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{8635ECF1-BEB6-4883-9DCE-064780583DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBB7216B-F2A6-4F04-B6E4-F8224FAFBA9A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -149,10 +149,10 @@
     <t>2024 ---</t>
   </si>
   <si>
-    <t>M.Sc. in Economics</t>
-  </si>
-  <si>
     <t>Universidade Católica de Brasília</t>
+  </si>
+  <si>
+    <t>M.Sc. in Economics (in progress)</t>
   </si>
 </sst>
 </file>
@@ -209,6 +209,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -493,7 +497,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -540,10 +544,10 @@
         <v>2024</v>
       </c>
       <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
         <v>38</v>
-      </c>
-      <c r="E2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">

--- a/data/cv_entries.xlsx
+++ b/data/cv_entries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/da4d17bb2dd32c35/Economia/GitHub/alexandrsanches.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{8635ECF1-BEB6-4883-9DCE-064780583DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBB7216B-F2A6-4F04-B6E4-F8224FAFBA9A}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{8635ECF1-BEB6-4883-9DCE-064780583DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8228C426-4A58-49CF-A650-2BC75C06BE93}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -497,7 +497,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -541,7 +541,7 @@
         <v>37</v>
       </c>
       <c r="C2">
-        <v>2024</v>
+        <v>2026</v>
       </c>
       <c r="D2" t="s">
         <v>39</v>

--- a/data/cv_entries.xlsx
+++ b/data/cv_entries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/da4d17bb2dd32c35/Economia/GitHub/alexandrsanches.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{8635ECF1-BEB6-4883-9DCE-064780583DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8228C426-4A58-49CF-A650-2BC75C06BE93}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{8635ECF1-BEB6-4883-9DCE-064780583DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E6DED94-518A-4EBF-820D-928F73DB1545}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -541,7 +541,7 @@
         <v>37</v>
       </c>
       <c r="C2">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="D2" t="s">
         <v>39</v>

--- a/data/cv_entries.xlsx
+++ b/data/cv_entries.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/da4d17bb2dd32c35/Economia/GitHub/alexandrsanches.github.io/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubecedu-my.sharepoint.com/personal/alexandre_leao_a_ucb_br/Documents/Economia/GitHub/alexandrsanches.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{8635ECF1-BEB6-4883-9DCE-064780583DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E6DED94-518A-4EBF-820D-928F73DB1545}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{8635ECF1-BEB6-4883-9DCE-064780583DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C419B5F-9851-4B0F-A67C-B8BA8A96FAB7}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,9 +74,6 @@
     <t>history</t>
   </si>
   <si>
-    <t>Research Assistant</t>
-  </si>
-  <si>
     <t>Intern</t>
   </si>
   <si>
@@ -131,15 +128,6 @@
     <t>11/21 ---</t>
   </si>
   <si>
-    <t>Since 10/22</t>
-  </si>
-  <si>
-    <t>Reseacher</t>
-  </si>
-  <si>
-    <t>Since 04/23</t>
-  </si>
-  <si>
     <t>IPEDF - Institute of Research and Statistics of the Federal District</t>
   </si>
   <si>
@@ -153,6 +141,18 @@
   </si>
   <si>
     <t>M.Sc. in Economics (in progress)</t>
+  </si>
+  <si>
+    <t>Research Assistant I</t>
+  </si>
+  <si>
+    <t>Research Assistant III</t>
+  </si>
+  <si>
+    <t>10/22 ---</t>
+  </si>
+  <si>
+    <t>04/23 ---</t>
   </si>
 </sst>
 </file>
@@ -209,10 +209,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -497,7 +493,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -538,16 +534,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C2">
         <v>2025</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -564,7 +560,7 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
         <v>10</v>
@@ -575,13 +571,17 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>39</v>
+      </c>
+      <c r="C4" t="str">
+        <f>_xlfn.CONCAT("06/24")</f>
+        <v>06/24</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -589,13 +589,17 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="C5" t="str">
+        <f>_xlfn.CONCAT("02/24")</f>
+        <v>02/24</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -603,17 +607,17 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" t="str">
         <f>_xlfn.CONCAT("10/22")</f>
         <v>10/22</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -621,17 +625,17 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" t="str">
         <f>_xlfn.CONCAT("11/21")</f>
         <v>11/21</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -639,17 +643,17 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" t="str">
         <f>_xlfn.CONCAT("08/21")</f>
         <v>08/21</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -657,45 +661,45 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1" t="str">
         <f>_xlfn.CONCAT("08/21")</f>
         <v>08/21</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
         <v>27</v>
-      </c>
-      <c r="E10" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>25</v>
-      </c>
-      <c r="E11" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
